--- a/data/screws/screws_unsh.xlsx
+++ b/data/screws/screws_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\screws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\screws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BDE01-0164-4304-9C41-CFC349955D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64894B97-2578-4AC0-B115-73F56861B58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,216 +59,231 @@
     <t>39806А Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
+    <t>40005А Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
+  </si>
+  <si>
+    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
     <t>39920А Винт LM (копия оригинала) Biotech 3.6/4.8 (арт. KVP) V.1</t>
   </si>
   <si>
+    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+  </si>
+  <si>
+    <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
+  </si>
+  <si>
+    <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
+  </si>
+  <si>
+    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+  </si>
+  <si>
+    <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
+  </si>
+  <si>
+    <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
+  </si>
+  <si>
+    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
+    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
+  </si>
+  <si>
+    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
+    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
+    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
+  </si>
+  <si>
+    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
+    <t>40009А Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
+  </si>
+  <si>
+    <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
+  </si>
+  <si>
+    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+  </si>
+  <si>
+    <t>40304Аупб Винт LM (копия оригинала) Alpha Bio Multi-Unit TCT-N (арт. SF-N 6092) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
+  </si>
+  <si>
+    <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
+  </si>
+  <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39930 Винт LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen) (арт. MUAS) V.1</t>
+  </si>
+  <si>
+    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>40312АNопт Винт LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
+  </si>
+  <si>
+    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
+  </si>
+  <si>
+    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39915Ауп Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
+  </si>
+  <si>
+    <t>41052 Винт LM (собств. разр.) Ankylos X V.1</t>
+  </si>
+  <si>
+    <t>40128А Винт LM NT-Traiding Ankylos X (арт. Y60) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>41259А Винт LM (копия оригинала) Paltop Multi-Unit (арт. 80-70005) V.1</t>
+  </si>
+  <si>
+    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
+  </si>
+  <si>
+    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+  </si>
+  <si>
+    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
+  </si>
+  <si>
+    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40101А Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
+  </si>
+  <si>
+    <t>41033 Винт LM ZIRKONZAHN Osstem Implant Mini (3.5) V.1</t>
+  </si>
+  <si>
+    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
+  </si>
+  <si>
+    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
+  </si>
+  <si>
+    <t>40000А Винт LM (копия оригинала) Astra Tech 3.0 (арт. 24189) V.1</t>
+  </si>
+  <si>
+    <t>39110А Винт LM (собств. разр.) Ankylos C / X V.1</t>
+  </si>
+  <si>
+    <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
+  </si>
+  <si>
+    <t>40140Ауп Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39908Аупб Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
+  </si>
+  <si>
+    <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>39901А Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
   </si>
   <si>
-    <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
-  </si>
-  <si>
-    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
-  </si>
-  <si>
-    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
-  </si>
-  <si>
-    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
-  </si>
-  <si>
-    <t>40009А Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
-  </si>
-  <si>
-    <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
-    <t>40005А Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
-  </si>
-  <si>
-    <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
-  </si>
-  <si>
-    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
-  </si>
-  <si>
-    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
-  </si>
-  <si>
-    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
-  </si>
-  <si>
-    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
-  </si>
-  <si>
-    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
-  </si>
-  <si>
-    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39921А Винт LM (копия оригинала) Dentis Regular (арт. DSAS) V.2</t>
-  </si>
-  <si>
-    <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
-  </si>
-  <si>
-    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
-  </si>
-  <si>
-    <t>39802А Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
-  </si>
-  <si>
-    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
-  </si>
-  <si>
-    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
-    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
-    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
-  </si>
-  <si>
-    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
-  </si>
-  <si>
-    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
-  </si>
-  <si>
-    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40139А Винт LM (копия оригинала) INNO V.1</t>
-  </si>
-  <si>
-    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
-  </si>
-  <si>
-    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
-  </si>
-  <si>
-    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
-  </si>
-  <si>
-    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
-  </si>
-  <si>
-    <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
-  </si>
-  <si>
-    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39125 Винт LM (копия оригинала) Conmet classic (арт. 204.15s) V.1</t>
-  </si>
-  <si>
-    <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
-  </si>
-  <si>
-    <t>40140Ауп Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
-  </si>
-  <si>
-    <t>39908Аупб Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
   </si>
   <si>
-    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39905Bуп Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>40108Аупб Винт LM (копия оригинала) DIO UF II NP (3.0) (арт. UNSAS 1407H) V.1 / УПАК</t>
   </si>
   <si>
     <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
   </si>
   <si>
+    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
   </si>
   <si>
-    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
-  </si>
-  <si>
     <t>Винт лабораторный</t>
   </si>
   <si>
+    <t>40005АЛ Винт лаб. LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
+  </si>
+  <si>
     <t>40008АЛ Винт лаб. LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
   </si>
   <si>
-    <t>40005АЛ Винт лаб. LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
-  </si>
-  <si>
     <t>39806АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
@@ -278,67 +293,76 @@
     <t>39502АЛ Винт лаб. LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
   </si>
   <si>
+    <t>40003АЛ Винт лаб. LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
+  </si>
+  <si>
+    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+  </si>
+  <si>
+    <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
+  </si>
+  <si>
     <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
   </si>
   <si>
+    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
+    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
+  </si>
+  <si>
     <t>39502СЛ Винт лаб. LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
   </si>
   <si>
-    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
+  </si>
+  <si>
+    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
   </si>
   <si>
     <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
   </si>
   <si>
+    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
+    <t>39930Л Винт лаб. LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen) (арт. MUAS) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+  </si>
+  <si>
+    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
+  </si>
+  <si>
+    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
+  </si>
+  <si>
     <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
   </si>
   <si>
-    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
-    <t>40003АЛ Винт лаб. LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
-  </si>
-  <si>
-    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
-  </si>
-  <si>
-    <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
-  </si>
-  <si>
-    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
-  </si>
-  <si>
-    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
-  </si>
-  <si>
-    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
-  </si>
-  <si>
-    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
     <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
   </si>
   <si>
+    <t>39921АЛ Винт лаб. LM (копия оригинала) Dentis Regular (арт. DSAS) V.2</t>
+  </si>
+  <si>
+    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
+  </si>
+  <si>
     <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
   </si>
   <si>
-    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
-  </si>
-  <si>
-    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+    <t>40109АЛ Винт лаб. LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
   </si>
   <si>
     <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
@@ -347,6 +371,12 @@
     <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
   </si>
   <si>
+    <t>39911АЛ Винт лаб. LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
+  </si>
+  <si>
+    <t>40000АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.0 (арт. 24189) V.1</t>
+  </si>
+  <si>
     <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
   </si>
   <si>
@@ -356,24 +386,24 @@
     <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
   </si>
   <si>
+    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
+  </si>
+  <si>
+    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
+  </si>
+  <si>
     <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
   </si>
   <si>
-    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
-    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
-  </si>
-  <si>
-    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
-  </si>
-  <si>
     <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
   </si>
   <si>
+    <t>39805АЛ Винт лаб. LM (копия оригинала) BioHorizons 3.0 / 3.5 / 4.5 / 5.7 (арт. PXAS) V.1</t>
+  </si>
+  <si>
     <t>Винт трансфера для открытой ложки</t>
   </si>
   <si>
@@ -383,37 +413,61 @@
     <t>41218 Винт трансфера Implantium открытая ложка L=11</t>
   </si>
   <si>
+    <t>41201 Винт трансфера Ankylos X открытая ложка L=20</t>
+  </si>
+  <si>
+    <t>41212 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=23.3</t>
+  </si>
+  <si>
+    <t>41231 Винт трансфера Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) открытая ложка L=27.7</t>
+  </si>
+  <si>
+    <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5</t>
+  </si>
+  <si>
+    <t>41203 Винт трансфера Xive 3.4 / 3.8 / 4.5 открытая ложка L=22</t>
+  </si>
+  <si>
+    <t>41299 Винт трансфера Implantium Multi-Unit 4.5 открытая ложка L=15</t>
+  </si>
+  <si>
+    <t>41209 Винт трансфера Nobel Replace Select 4.3 открытая ложка L=20.6</t>
+  </si>
+  <si>
+    <t>41208 Винт трансфера Nobel Replace Select 3.5 открытая ложка L=19</t>
+  </si>
+  <si>
+    <t>41338 Винт трансфера Anthogyr Axiom открытая ложка L=18</t>
+  </si>
+  <si>
+    <t>41200 Винт трансфера Alpha Bio Internal открытая ложка L=24</t>
+  </si>
+  <si>
+    <t>41321 Винт трансфера LENMIRIOT Multi-Unit (отв. Dentium) открытая ложка L=10</t>
+  </si>
+  <si>
+    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19</t>
+  </si>
+  <si>
+    <t>41319 Винт трансфера LENMIRIOT Multi-Unit (отв. Megagen) / (отв. Osstem) открытая ложка L=10</t>
+  </si>
+  <si>
+    <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21</t>
+  </si>
+  <si>
+    <t>41221 Винт трансфера Ankylos X открытая ложка L=25</t>
+  </si>
+  <si>
     <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7</t>
   </si>
   <si>
-    <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5</t>
-  </si>
-  <si>
-    <t>41299 Винт трансфера Implantium Multi-Unit 4.5 открытая ложка L=15</t>
-  </si>
-  <si>
-    <t>41321 Винт трансфера LENMIRIOT Multi-Unit (отв. Dentium) открытая ложка L=10</t>
-  </si>
-  <si>
-    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19</t>
-  </si>
-  <si>
-    <t>41221 Винт трансфера Ankylos X открытая ложка L=25</t>
-  </si>
-  <si>
-    <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21</t>
-  </si>
-  <si>
-    <t>41201 Винт трансфера Ankylos X открытая ложка L=20</t>
-  </si>
-  <si>
     <t>Винт углового абатмента MU</t>
   </si>
   <si>
+    <t>41343 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), MegaGen AnyOne V.1 /</t>
+  </si>
+  <si>
     <t>41344 Винт угл. абатмента MU LM (собств. разр.) Implantium V.1 /</t>
-  </si>
-  <si>
-    <t>41343 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), MegaGen AnyOne V.1 /</t>
   </si>
 </sst>
 </file>
@@ -902,10 +956,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -917,8 +971,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -978,15 +1031,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>14240</v>
+        <v>15258</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>8893</v>
+        <v>9042</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>5347</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -996,7 +1049,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>1090</v>
+        <v>1140</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7">
@@ -1004,7 +1057,7 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <v>747</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1013,122 +1066,122 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="20">
-        <v>500</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="19">
+        <v>3303</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="6">
+        <v>2745</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="20">
-        <v>776</v>
+        <v>564</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="7">
-        <v>324</v>
+        <v>46</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="19">
-        <v>2018</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="6">
-        <v>1605</v>
-      </c>
+      <c r="D10" s="20">
+        <v>500</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="20">
-        <v>455</v>
-      </c>
-      <c r="E11" s="20"/>
+      <c r="D11" s="19">
+        <v>1037</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="7">
-        <v>46</v>
+        <v>580</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="20">
-        <v>436</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="7">
-        <v>150</v>
+      <c r="D12" s="19">
+        <v>2022</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="6">
+        <v>1605</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="7">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20">
-        <v>939</v>
+        <v>436</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="7">
-        <v>711</v>
+        <v>150</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <v>228</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1138,13 +1191,13 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1153,16 +1206,16 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="19">
-        <v>2917</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="6">
-        <v>2745</v>
+      <c r="D16" s="20">
+        <v>267</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="7">
+        <v>57</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <v>172</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1172,15 +1225,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="7">
-        <v>50</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1190,13 +1241,15 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7">
+        <v>8</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1206,33 +1259,33 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20">
-        <v>121</v>
+        <v>270</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="7">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20">
-        <v>190</v>
+        <v>407</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="7">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1242,15 +1295,15 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20">
-        <v>659</v>
+        <v>180</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="7">
-        <v>580</v>
+        <v>45</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1260,65 +1313,67 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="20">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="7">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
-        <v>56</v>
+        <v>786</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7">
+        <v>711</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1328,83 +1383,83 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="7">
+        <v>30</v>
+      </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="7">
-        <v>125</v>
-      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="7">
+        <v>50</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="7">
-        <v>137</v>
-      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1414,34 +1469,36 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7">
+        <v>25</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="7">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
@@ -1473,22 +1530,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="7">
-        <v>25</v>
-      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1498,25 +1553,25 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="20">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="20">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="7">
@@ -1524,7 +1579,7 @@
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1570,15 +1625,15 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="7">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1588,15 +1643,13 @@
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="7">
-        <v>25</v>
-      </c>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1606,33 +1659,31 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="7">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="20">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="7">
-        <v>270</v>
-      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1651,38 +1702,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="7">
-        <v>40</v>
-      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="20">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1692,67 +1741,63 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E47" s="20"/>
-      <c r="F47" s="7">
-        <v>30</v>
-      </c>
+      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="20">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E48" s="20"/>
-      <c r="F48" s="7">
-        <v>25</v>
-      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="20">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="7">
-        <v>75</v>
-      </c>
+      <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="20">
+        <v>25</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="7">
         <v>10</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1762,33 +1807,33 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="20">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="7">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="7">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1798,31 +1843,33 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="7">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="7">
+        <v>65</v>
+      </c>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1832,31 +1879,33 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="7">
+        <v>50</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1866,31 +1915,33 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="20">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="7">
+        <v>50</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="7">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1900,47 +1951,45 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="20">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E60" s="20"/>
-      <c r="F60" s="7">
-        <v>50</v>
-      </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1950,13 +1999,15 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="7">
+        <v>26</v>
+      </c>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1966,15 +2017,15 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="7">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1984,15 +2035,15 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2002,13 +2053,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2018,13 +2069,15 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="20">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="7">
+        <v>50</v>
+      </c>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2034,13 +2087,13 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2050,61 +2103,65 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" s="20"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="20">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E70" s="20"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="7">
+        <v>20</v>
+      </c>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2114,13 +2171,13 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2130,65 +2187,63 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="20">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="E73" s="20"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="7">
+        <v>324</v>
+      </c>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17">
-        <v>2419</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="9">
-        <v>641</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="4">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="20"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="20">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="E76" s="20"/>
-      <c r="F76" s="7">
-        <v>65</v>
-      </c>
+      <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <v>271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2198,69 +2253,63 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="20">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="E77" s="20"/>
-      <c r="F77" s="7">
-        <v>72</v>
-      </c>
+      <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="20">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="E78" s="20"/>
-      <c r="F78" s="7">
-        <v>51</v>
-      </c>
+      <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="20">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="E79" s="20"/>
-      <c r="F79" s="7">
-        <v>55</v>
-      </c>
+      <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="20">
-        <v>130</v>
-      </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="7">
-        <v>6</v>
-      </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7">
-        <v>124</v>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17">
+        <v>2693</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="9">
+        <v>671</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4">
+        <v>2022</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2270,49 +2319,51 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="20">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="7">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="20">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="E82" s="20"/>
-      <c r="F82" s="8"/>
+      <c r="F82" s="7">
+        <v>65</v>
+      </c>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="20">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="7">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <v>69</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2322,15 +2373,15 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="20">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="7">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2340,13 +2391,15 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="20">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E85" s="20"/>
-      <c r="F85" s="8"/>
+      <c r="F85" s="7">
+        <v>6</v>
+      </c>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2356,65 +2409,69 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="20">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E86" s="20"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="7">
+        <v>27</v>
+      </c>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="20">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="7">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="20">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="7">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="20">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E89" s="20"/>
-      <c r="F89" s="8"/>
+      <c r="F89" s="7">
+        <v>6</v>
+      </c>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2424,15 +2481,15 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="20">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2442,13 +2499,13 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="20">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2458,41 +2515,41 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="20">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="20">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="7">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="20">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="7">
@@ -2500,7 +2557,7 @@
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2510,7 +2567,7 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="20">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="7">
@@ -2518,7 +2575,7 @@
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2528,15 +2585,15 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="20">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="7">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2546,31 +2603,31 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="20">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E97" s="20"/>
-      <c r="F97" s="7">
-        <v>25</v>
-      </c>
+      <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="20">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E98" s="20"/>
-      <c r="F98" s="8"/>
+      <c r="F98" s="7">
+        <v>25</v>
+      </c>
       <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2580,49 +2637,45 @@
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E99" s="20"/>
-      <c r="F99" s="7">
-        <v>20</v>
-      </c>
+      <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="20">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E100" s="20"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="20">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E101" s="20"/>
-      <c r="F101" s="7">
-        <v>50</v>
-      </c>
+      <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2632,13 +2685,15 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E102" s="20"/>
-      <c r="F102" s="8"/>
+      <c r="F102" s="7">
+        <v>25</v>
+      </c>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2648,29 +2703,31 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="20">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E103" s="20"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="7">
+        <v>25</v>
+      </c>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="20">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E104" s="20"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2680,13 +2737,13 @@
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="20">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2696,15 +2753,13 @@
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="20">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E106" s="20"/>
-      <c r="F106" s="7">
-        <v>1</v>
-      </c>
+      <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2714,113 +2769,115 @@
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E107" s="20"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="7">
+        <v>2</v>
+      </c>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="20">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E108" s="20"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="7">
+        <v>20</v>
+      </c>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E111" s="20"/>
-      <c r="F111" s="7">
-        <v>2</v>
-      </c>
+      <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="20">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="7">
+        <v>30</v>
+      </c>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="21">
-        <v>650</v>
-      </c>
-      <c r="E113" s="21"/>
-      <c r="F113" s="9">
-        <v>483</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="9">
-        <v>167</v>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="20">
+        <v>6</v>
+      </c>
+      <c r="E113" s="20"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2830,13 +2887,13 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="20">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2846,31 +2903,31 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="20">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E115" s="20"/>
-      <c r="F115" s="7">
-        <v>32</v>
-      </c>
+      <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="20">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E116" s="20"/>
-      <c r="F116" s="8"/>
+      <c r="F116" s="7">
+        <v>1</v>
+      </c>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2880,15 +2937,13 @@
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="20">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="E117" s="20"/>
-      <c r="F117" s="7">
-        <v>166</v>
-      </c>
+      <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2898,113 +2953,111 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="20">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="E120" s="20"/>
-      <c r="F120" s="7">
-        <v>135</v>
-      </c>
+      <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="20">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="E122" s="20"/>
-      <c r="F122" s="7">
-        <v>150</v>
-      </c>
+      <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="20">
-        <v>3</v>
-      </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="16" t="s">
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="21">
+        <v>744</v>
+      </c>
+      <c r="E123" s="21"/>
+      <c r="F123" s="9">
+        <v>489</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="21">
-        <v>6</v>
-      </c>
-      <c r="E124" s="21"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="9">
-        <v>6</v>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="20">
+        <v>52</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="7">
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3014,51 +3067,387 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="20">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E125" s="20"/>
-      <c r="F125" s="8"/>
+      <c r="F125" s="7">
+        <v>32</v>
+      </c>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="20">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="20">
+        <v>25</v>
+      </c>
+      <c r="E127" s="20"/>
+      <c r="F127" s="7">
+        <v>5</v>
+      </c>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="20">
+        <v>20</v>
+      </c>
+      <c r="E128" s="20"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="20">
+        <v>181</v>
+      </c>
+      <c r="E129" s="20"/>
+      <c r="F129" s="7">
+        <v>166</v>
+      </c>
+      <c r="G129" s="8"/>
+      <c r="H129" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="20">
+        <v>13</v>
+      </c>
+      <c r="E130" s="20"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="20">
+        <v>10</v>
+      </c>
+      <c r="E131" s="20"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="20">
+        <v>10</v>
+      </c>
+      <c r="E132" s="20"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="20">
+        <v>10</v>
+      </c>
+      <c r="E133" s="20"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="20">
+        <v>9</v>
+      </c>
+      <c r="E134" s="20"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="20">
+        <v>7</v>
+      </c>
+      <c r="E135" s="20"/>
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
+      <c r="G135" s="8"/>
+      <c r="H135" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="20">
+        <v>4</v>
+      </c>
+      <c r="E136" s="20"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="20">
+        <v>139</v>
+      </c>
+      <c r="E137" s="20"/>
+      <c r="F137" s="7">
+        <v>135</v>
+      </c>
+      <c r="G137" s="8"/>
+      <c r="H137" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="20">
+        <v>4</v>
+      </c>
+      <c r="E138" s="20"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="20">
+        <v>153</v>
+      </c>
+      <c r="E139" s="20"/>
+      <c r="F139" s="7">
+        <v>150</v>
+      </c>
+      <c r="G139" s="8"/>
+      <c r="H139" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
+    <row r="140" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="20">
         <v>3</v>
       </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="22">
-        <v>17315</v>
-      </c>
-      <c r="E127" s="22"/>
-      <c r="F127" s="10">
-        <v>10017</v>
-      </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="10">
-        <v>7298</v>
+      <c r="E140" s="20"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="20">
+        <v>1</v>
+      </c>
+      <c r="E141" s="20"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="21">
+        <v>43</v>
+      </c>
+      <c r="E142" s="21"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="20">
+        <v>36</v>
+      </c>
+      <c r="E143" s="20"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="20">
+        <v>7</v>
+      </c>
+      <c r="E144" s="20"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="22">
+        <v>18738</v>
+      </c>
+      <c r="E145" s="22"/>
+      <c r="F145" s="10">
+        <v>10202</v>
+      </c>
+      <c r="G145" s="11"/>
+      <c r="H145" s="10">
+        <v>8536</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="249">
+  <mergeCells count="285">
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:E132"/>
     <mergeCell ref="A123:C123"/>
     <mergeCell ref="D123:E123"/>
     <mergeCell ref="A124:C124"/>

--- a/data/screws/screws_unsh.xlsx
+++ b/data/screws/screws_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\screws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\screws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64894B97-2578-4AC0-B115-73F56861B58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F91526A-FEB4-4EBD-BE1D-D2360D1F81C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>Отбор:</t>
   </si>
@@ -59,205 +59,196 @@
     <t>39806А Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
+    <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
+  </si>
+  <si>
+    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
+    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+  </si>
+  <si>
     <t>40005А Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
   </si>
   <si>
-    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
-  </si>
-  <si>
-    <t>39920А Винт LM (копия оригинала) Biotech 3.6/4.8 (арт. KVP) V.1</t>
+    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
+    <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
+  </si>
+  <si>
+    <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
+  </si>
+  <si>
+    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+  </si>
+  <si>
+    <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
   </si>
   <si>
     <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
   </si>
   <si>
-    <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
-  </si>
-  <si>
-    <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
-  </si>
-  <si>
-    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+    <t>40316АOопт Винт LM GEO Osstem Implant Multi-Unit (арт. MUTOC) V.1</t>
+  </si>
+  <si>
+    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
   </si>
   <si>
     <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
   </si>
   <si>
-    <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
-  </si>
-  <si>
-    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
+    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
+  </si>
+  <si>
+    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>41259А Винт LM (копия оригинала) Paltop Multi-Unit (арт. 80-70005) V.1</t>
+  </si>
+  <si>
+    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
   </si>
   <si>
     <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
   </si>
   <si>
-    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
+  </si>
+  <si>
+    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
+  </si>
+  <si>
+    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
   </si>
   <si>
     <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
   </si>
   <si>
-    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
-  </si>
-  <si>
-    <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
-  </si>
-  <si>
-    <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
-  </si>
-  <si>
-    <t>40009А Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
-  </si>
-  <si>
-    <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
-  </si>
-  <si>
-    <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
-  </si>
-  <si>
-    <t>40304Аупб Винт LM (копия оригинала) Alpha Bio Multi-Unit TCT-N (арт. SF-N 6092) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
+    <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
+  </si>
+  <si>
+    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
+  </si>
+  <si>
+    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39909Вуп Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
+  </si>
+  <si>
+    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+  </si>
+  <si>
+    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
+  </si>
+  <si>
+    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
+  </si>
+  <si>
+    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
+  </si>
+  <si>
+    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
+  </si>
+  <si>
+    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
   </si>
   <si>
     <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
   </si>
   <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39930 Винт LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen) (арт. MUAS) V.1</t>
-  </si>
-  <si>
-    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>40312АNопт Винт LM (копия оригинала) Nobel Multi-Unit (арт. 29287) V.1</t>
-  </si>
-  <si>
-    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
-  </si>
-  <si>
-    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39915Ауп Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
-  </si>
-  <si>
-    <t>41052 Винт LM (собств. разр.) Ankylos X V.1</t>
-  </si>
-  <si>
-    <t>40128А Винт LM NT-Traiding Ankylos X (арт. Y60) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39807Ауп Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>41259А Винт LM (копия оригинала) Paltop Multi-Unit (арт. 80-70005) V.1</t>
-  </si>
-  <si>
-    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
-  </si>
-  <si>
-    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
-  </si>
-  <si>
-    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
-  </si>
-  <si>
-    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40101А Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1</t>
-  </si>
-  <si>
-    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
-  </si>
-  <si>
-    <t>41033 Винт LM ZIRKONZAHN Osstem Implant Mini (3.5) V.1</t>
-  </si>
-  <si>
-    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
-  </si>
-  <si>
-    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
-  </si>
-  <si>
-    <t>40000А Винт LM (копия оригинала) Astra Tech 3.0 (арт. 24189) V.1</t>
-  </si>
-  <si>
-    <t>39110А Винт LM (собств. разр.) Ankylos C / X V.1</t>
-  </si>
-  <si>
     <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
   </si>
   <si>
-    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
-  </si>
-  <si>
     <t>40140Ауп Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1 / УПАК</t>
   </si>
   <si>
+    <t>41266А Винт LM (копия оригинала) Roott (арт. для ТО  арт. PCO2) V.1</t>
+  </si>
+  <si>
+    <t>41265А Винт LM (копия оригинала) Roott (арт. для ТО арт. PCO1) V.1</t>
+  </si>
+  <si>
+    <t>41238 Винт LM (собств. разр.) Roott V.1</t>
+  </si>
+  <si>
+    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
+  </si>
+  <si>
     <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
+    <t>41238А Винт LM (собств. разр.) Roott V.2</t>
+  </si>
+  <si>
+    <t>40005Аупб Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1 / УПАК</t>
   </si>
   <si>
     <t>39908Аупб Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1 / УПАК</t>
   </si>
   <si>
+    <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
+  </si>
+  <si>
     <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
   </si>
   <si>
     <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39901А Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
-  </si>
-  <si>
-    <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
+    <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
   </si>
   <si>
     <t>40108Аупб Винт LM (копия оригинала) DIO UF II NP (3.0) (арт. UNSAS 1407H) V.1 / УПАК</t>
@@ -266,24 +257,36 @@
     <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
   </si>
   <si>
+    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
     <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
   </si>
   <si>
     <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
   </si>
   <si>
-    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+    <t>39919А Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
+  </si>
+  <si>
+    <t>41244 Винт LM (копия оригинала) MegaGen MiNi (арт. MIAS14) V.1</t>
+  </si>
+  <si>
+    <t>Винт 3D аналога</t>
+  </si>
+  <si>
+    <t>32900А Винт универсальный для аналога 3D</t>
   </si>
   <si>
     <t>Винт лабораторный</t>
   </si>
   <si>
+    <t>40008АЛ Винт лаб. LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
+  </si>
+  <si>
     <t>40005АЛ Винт лаб. LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
   </si>
   <si>
-    <t>40008АЛ Винт лаб. LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
-  </si>
-  <si>
     <t>39806АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
@@ -293,178 +296,151 @@
     <t>39502АЛ Винт лаб. LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
   </si>
   <si>
+    <t>39502СЛ Винт лаб. LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+  </si>
+  <si>
+    <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+  </si>
+  <si>
     <t>40003АЛ Винт лаб. LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
   </si>
   <si>
+    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
+  </si>
+  <si>
     <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
   </si>
   <si>
+    <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
+    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
+    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
+  </si>
+  <si>
     <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
   </si>
   <si>
-    <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
+    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
+  </si>
+  <si>
+    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
+    <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
+  </si>
+  <si>
+    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
+  </si>
+  <si>
+    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
+  </si>
+  <si>
+    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
+  </si>
+  <si>
+    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
+  </si>
+  <si>
+    <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
+  </si>
+  <si>
+    <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
+  </si>
+  <si>
+    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+  </si>
+  <si>
+    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
+  </si>
+  <si>
+    <t>41238АЛ Винт лаб. LM (собств. разр.) Roott V.2</t>
+  </si>
+  <si>
+    <t>41238Л Винт лаб. LM (собств. разр.) Roott V.1</t>
+  </si>
+  <si>
+    <t>41265АЛ Винт лаб. LM (копия оригинала) Roott (арт. для ТО арт. PCO1) V.1</t>
+  </si>
+  <si>
+    <t>40114АЛ Винт лаб. LM (копия оригинала) Roott (арт. S8) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!41238АЛ Винт лаб. LM (собств. разр.) Roott V.2</t>
+  </si>
+  <si>
+    <t>41266АЛ Винт лаб. LM (копия оригинала) Roott (арт. для ТО  арт. PCO2) V.1</t>
+  </si>
+  <si>
+    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>41244Л Винт лаб. LM (копия оригинала) MegaGen MiNi (арт. MIAS14) V.1</t>
+  </si>
+  <si>
+    <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
+    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
+  </si>
+  <si>
+    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
   </si>
   <si>
     <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
   </si>
   <si>
-    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
-    <t>39502СЛ Винт лаб. LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
-  </si>
-  <si>
-    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
-  </si>
-  <si>
-    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
-    <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
-  </si>
-  <si>
-    <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
-  </si>
-  <si>
-    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>39930Л Винт лаб. LM (копия оригинала) MegaGen Multi-Unit Type N, LENMIRIOT Multi-Unit (отв. Megagen) (арт. MUAS) V.1</t>
-  </si>
-  <si>
-    <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
-  </si>
-  <si>
-    <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
-  </si>
-  <si>
-    <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
-  </si>
-  <si>
-    <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
-  </si>
-  <si>
-    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>39921АЛ Винт лаб. LM (копия оригинала) Dentis Regular (арт. DSAS) V.2</t>
-  </si>
-  <si>
-    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
-  </si>
-  <si>
-    <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
-  </si>
-  <si>
-    <t>40109АЛ Винт лаб. LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
-  </si>
-  <si>
-    <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
-  </si>
-  <si>
-    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
-  </si>
-  <si>
-    <t>39911АЛ Винт лаб. LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
-  </si>
-  <si>
-    <t>40000АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.0 (арт. 24189) V.1</t>
-  </si>
-  <si>
-    <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
-  </si>
-  <si>
-    <t>41031Л Винт лаб. LM ZIRKONZAHN Mis SP (3.75/4.2) / WP (5.0/6.0) V.1</t>
-  </si>
-  <si>
-    <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
-  </si>
-  <si>
-    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
-    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
-  </si>
-  <si>
     <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
   </si>
   <si>
-    <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
-  </si>
-  <si>
-    <t>39805АЛ Винт лаб. LM (копия оригинала) BioHorizons 3.0 / 3.5 / 4.5 / 5.7 (арт. PXAS) V.1</t>
-  </si>
-  <si>
     <t>Винт трансфера для открытой ложки</t>
   </si>
   <si>
-    <t>41219 Винт трансфера Implantium открытая ложка L=15</t>
-  </si>
-  <si>
-    <t>41218 Винт трансфера Implantium открытая ложка L=11</t>
-  </si>
-  <si>
-    <t>41201 Винт трансфера Ankylos X открытая ложка L=20</t>
-  </si>
-  <si>
-    <t>41212 Винт трансфера Osstem Implant Mini (3.5) открытая ложка L=23.3</t>
-  </si>
-  <si>
-    <t>41231 Винт трансфера Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) открытая ложка L=27.7</t>
-  </si>
-  <si>
-    <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5</t>
-  </si>
-  <si>
-    <t>41203 Винт трансфера Xive 3.4 / 3.8 / 4.5 открытая ложка L=22</t>
-  </si>
-  <si>
-    <t>41299 Винт трансфера Implantium Multi-Unit 4.5 открытая ложка L=15</t>
-  </si>
-  <si>
-    <t>41209 Винт трансфера Nobel Replace Select 4.3 открытая ложка L=20.6</t>
-  </si>
-  <si>
-    <t>41208 Винт трансфера Nobel Replace Select 3.5 открытая ложка L=19</t>
-  </si>
-  <si>
-    <t>41338 Винт трансфера Anthogyr Axiom открытая ложка L=18</t>
-  </si>
-  <si>
-    <t>41200 Винт трансфера Alpha Bio Internal открытая ложка L=24</t>
-  </si>
-  <si>
-    <t>41321 Винт трансфера LENMIRIOT Multi-Unit (отв. Dentium) открытая ложка L=10</t>
-  </si>
-  <si>
-    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19</t>
-  </si>
-  <si>
-    <t>41319 Винт трансфера LENMIRIOT Multi-Unit (отв. Megagen) / (отв. Osstem) открытая ложка L=10</t>
-  </si>
-  <si>
-    <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21</t>
-  </si>
-  <si>
-    <t>41221 Винт трансфера Ankylos X открытая ложка L=25</t>
-  </si>
-  <si>
-    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7</t>
+    <t>41219 Винт трансфера Implantium открытая ложка L=15 V.1</t>
+  </si>
+  <si>
+    <t>41218 Винт трансфера Implantium открытая ложка L=11 V.1</t>
+  </si>
+  <si>
+    <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5 V.1</t>
+  </si>
+  <si>
+    <t>41299 Винт трансфера Implantium Multi-Unit 4.5 открытая ложка L=15 V.1</t>
+  </si>
+  <si>
+    <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19 V.1</t>
+  </si>
+  <si>
+    <t>41221 Винт трансфера Ankylos X открытая ложка L=25 V.1</t>
+  </si>
+  <si>
+    <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21 V.1</t>
+  </si>
+  <si>
+    <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
+  </si>
+  <si>
+    <t>41203 Винт трансфера Xive 3.4 / 3.8 / 4.5 открытая ложка L=22 V.1</t>
+  </si>
+  <si>
+    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.1</t>
   </si>
   <si>
     <t>Винт углового абатмента MU</t>
-  </si>
-  <si>
-    <t>41343 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), MegaGen AnyOne V.1 /</t>
   </si>
   <si>
     <t>41344 Винт угл. абатмента MU LM (собств. разр.) Implantium V.1 /</t>
@@ -956,10 +932,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -971,7 +947,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1031,15 +1007,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>15258</v>
+        <v>11576</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>9042</v>
+        <v>7801</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>6216</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1049,7 +1025,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>1140</v>
+        <v>1073</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="7">
@@ -1057,25 +1033,25 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>3303</v>
+        <v>2159</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="6">
-        <v>2745</v>
+        <v>1605</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1085,7 +1061,7 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="20">
-        <v>564</v>
+        <v>446</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="7">
@@ -1093,7 +1069,7 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <v>518</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1103,13 +1079,15 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="20">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7">
+        <v>150</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <v>500</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1119,33 +1097,31 @@
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
-        <v>1037</v>
+        <v>2991</v>
       </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="7">
-        <v>580</v>
+      <c r="F11" s="6">
+        <v>2745</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="19">
-        <v>2022</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="6">
-        <v>1605</v>
-      </c>
+      <c r="D12" s="20">
+        <v>117</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <v>417</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1155,15 +1131,15 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20">
-        <v>418</v>
+        <v>191</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="7">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <v>293</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1173,31 +1149,33 @@
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20">
-        <v>436</v>
+        <v>152</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="7">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7">
+        <v>50</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1207,31 +1185,33 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="20">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="7">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7">
+        <v>125</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <v>176</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1241,15 +1221,15 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20">
-        <v>153</v>
+        <v>641</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="7">
-        <v>8</v>
+        <v>580</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1259,15 +1239,13 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="7">
-        <v>130</v>
-      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1277,33 +1255,29 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20">
-        <v>407</v>
+        <v>56</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="7">
-        <v>270</v>
-      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="7">
-        <v>45</v>
-      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <v>135</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1313,49 +1287,47 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="20">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7">
+        <v>130</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="7">
-        <v>88</v>
-      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
-        <v>786</v>
+        <v>41</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="7">
-        <v>711</v>
-      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1365,15 +1337,15 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="7">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1383,15 +1355,13 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="7">
-        <v>16</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1401,49 +1371,47 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="7">
-        <v>50</v>
-      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1453,10 +1421,12 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="7">
+        <v>8</v>
+      </c>
       <c r="G30" s="8"/>
       <c r="H30" s="7">
         <v>30</v>
@@ -1480,18 +1450,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
@@ -1505,13 +1475,15 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="7">
+        <v>80</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1521,13 +1493,15 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="7">
+        <v>25</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1537,13 +1511,15 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="7">
+        <v>50</v>
+      </c>
       <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1582,40 +1558,38 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="20">
-        <v>50</v>
+        <v>292</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="7">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="20">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="E39" s="20"/>
-      <c r="F39" s="7">
-        <v>80</v>
-      </c>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1625,18 +1599,16 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="7">
-        <v>222</v>
-      </c>
+      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>44</v>
       </c>
@@ -1686,36 +1658,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="7">
+        <v>10</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="7">
+        <v>25</v>
+      </c>
       <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1725,13 +1701,15 @@
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="20">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E46" s="20"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="7">
+        <v>30</v>
+      </c>
       <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1741,13 +1719,15 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="E47" s="20"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="7">
+        <v>210</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1757,13 +1737,15 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="20">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E48" s="20"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="7">
+        <v>65</v>
+      </c>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1773,49 +1755,49 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="20">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="7">
+        <v>400</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E50" s="20"/>
-      <c r="F50" s="7">
-        <v>10</v>
-      </c>
+      <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="20">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="7">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1825,15 +1807,15 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1843,33 +1825,29 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="E53" s="20"/>
-      <c r="F53" s="7">
-        <v>210</v>
-      </c>
+      <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="7">
-        <v>65</v>
-      </c>
+      <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1879,43 +1857,41 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="7">
-        <v>50</v>
-      </c>
+      <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="7">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="20">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="7">
@@ -1923,41 +1899,41 @@
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20">
-        <v>410</v>
+        <v>15</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="7">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1967,13 +1943,13 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1983,13 +1959,13 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1999,15 +1975,13 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="7">
-        <v>26</v>
-      </c>
+      <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2017,33 +1991,31 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="7">
-        <v>180</v>
-      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2053,13 +2025,13 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2069,15 +2041,15 @@
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="20">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="7">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2087,13 +2059,15 @@
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="8"/>
+      <c r="F67" s="7">
+        <v>20</v>
+      </c>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2103,15 +2077,13 @@
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" s="20"/>
-      <c r="F68" s="7">
-        <v>1</v>
-      </c>
+      <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2121,34 +2093,32 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="20">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E70" s="20"/>
-      <c r="F70" s="7">
-        <v>20</v>
-      </c>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>74</v>
       </c>
@@ -2164,20 +2134,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2187,34 +2157,32 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="20">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="E73" s="20"/>
-      <c r="F73" s="7">
-        <v>324</v>
-      </c>
+      <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>78</v>
       </c>
@@ -2278,56 +2246,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="20">
-        <v>1</v>
-      </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="21">
+        <v>4</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17">
-        <v>2693</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="9">
-        <v>671</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="20">
+        <v>4</v>
+      </c>
+      <c r="E80" s="20"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="20">
-        <v>336</v>
-      </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="7">
-        <v>72</v>
-      </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="7">
-        <v>264</v>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17">
+        <v>2483</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="9">
+        <v>691</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4">
+        <v>1792</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2337,7 +2303,7 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="20">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="7">
@@ -2345,61 +2311,61 @@
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="20">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="7">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="20">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="20">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2409,15 +2375,15 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="20">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2427,51 +2393,49 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="20">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E87" s="20"/>
-      <c r="F87" s="7">
-        <v>41</v>
-      </c>
+      <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="20">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="7">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="7">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="20">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2481,31 +2445,31 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="20">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E90" s="20"/>
-      <c r="F90" s="7">
-        <v>50</v>
-      </c>
+      <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="20">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E91" s="20"/>
-      <c r="F91" s="8"/>
+      <c r="F91" s="7">
+        <v>41</v>
+      </c>
       <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2515,13 +2479,15 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="20">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="8"/>
+      <c r="F92" s="7">
+        <v>25</v>
+      </c>
       <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2531,15 +2497,15 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="20">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="7">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2549,25 +2515,23 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="20">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E94" s="20"/>
-      <c r="F94" s="7">
-        <v>25</v>
-      </c>
+      <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="20">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="7">
@@ -2575,41 +2539,41 @@
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="20">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E96" s="20"/>
-      <c r="F96" s="7">
-        <v>62</v>
-      </c>
+      <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="20">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E97" s="20"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="7">
+        <v>25</v>
+      </c>
       <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2619,31 +2583,33 @@
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="20">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E99" s="20"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="7">
+        <v>25</v>
+      </c>
       <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2653,47 +2619,49 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="20">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E100" s="20"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="7">
+        <v>25</v>
+      </c>
       <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="20">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E101" s="20"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="20">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2703,31 +2671,31 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E103" s="20"/>
-      <c r="F103" s="7">
-        <v>25</v>
-      </c>
+      <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="20">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E104" s="20"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="7">
+        <v>10</v>
+      </c>
       <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2737,13 +2705,13 @@
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2753,81 +2721,81 @@
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="20">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="20">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E107" s="20"/>
-      <c r="F107" s="7">
-        <v>2</v>
-      </c>
+      <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="20">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E109" s="20"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E110" s="20"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="7">
+        <v>2</v>
+      </c>
       <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2837,13 +2805,13 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2853,15 +2821,13 @@
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="20">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="7">
-        <v>30</v>
-      </c>
+      <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2871,13 +2837,13 @@
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2887,13 +2853,13 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2903,13 +2869,13 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2919,15 +2885,13 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E116" s="20"/>
-      <c r="F116" s="7">
-        <v>1</v>
-      </c>
+      <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2953,10 +2917,12 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="20">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E118" s="20"/>
-      <c r="F118" s="8"/>
+      <c r="F118" s="7">
+        <v>50</v>
+      </c>
       <c r="G118" s="8"/>
       <c r="H118" s="7">
         <v>2</v>
@@ -2978,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>123</v>
       </c>
@@ -3017,47 +2983,49 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="20">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E122" s="20"/>
-      <c r="F122" s="8"/>
+      <c r="F122" s="7">
+        <v>50</v>
+      </c>
       <c r="G122" s="8"/>
       <c r="H122" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="16" t="s">
+    <row r="123" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="21">
-        <v>744</v>
-      </c>
-      <c r="E123" s="21"/>
-      <c r="F123" s="9">
-        <v>489</v>
-      </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="9">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="18" t="s">
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="20">
+        <v>1</v>
+      </c>
+      <c r="E123" s="20"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="20">
-        <v>52</v>
-      </c>
-      <c r="E124" s="20"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="7">
-        <v>52</v>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="21">
+        <v>613</v>
+      </c>
+      <c r="E124" s="21"/>
+      <c r="F124" s="9">
+        <v>483</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="9">
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3067,15 +3035,13 @@
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="20">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E125" s="20"/>
-      <c r="F125" s="7">
-        <v>32</v>
-      </c>
+      <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3085,13 +3051,15 @@
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="20">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E126" s="20"/>
-      <c r="F126" s="8"/>
+      <c r="F126" s="7">
+        <v>32</v>
+      </c>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3101,31 +3069,31 @@
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="20">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="7">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E128" s="20"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3135,15 +3103,15 @@
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="20">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="E129" s="20"/>
       <c r="F129" s="7">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3153,13 +3121,13 @@
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3169,13 +3137,15 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="20">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="E131" s="20"/>
-      <c r="F131" s="8"/>
+      <c r="F131" s="7">
+        <v>150</v>
+      </c>
       <c r="G131" s="8"/>
       <c r="H131" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3185,13 +3155,13 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3201,47 +3171,45 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E133" s="20"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="20">
-        <v>7</v>
-      </c>
-      <c r="E135" s="20"/>
-      <c r="F135" s="7">
-        <v>1</v>
-      </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="7">
-        <v>6</v>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="21">
+        <v>3</v>
+      </c>
+      <c r="E135" s="21"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3251,183 +3219,35 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="20">
-        <v>139</v>
-      </c>
-      <c r="E137" s="20"/>
-      <c r="F137" s="7">
-        <v>135</v>
-      </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="20">
-        <v>4</v>
-      </c>
-      <c r="E138" s="20"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="20">
-        <v>153</v>
-      </c>
-      <c r="E139" s="20"/>
-      <c r="F139" s="7">
-        <v>150</v>
-      </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="20">
+    <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="20"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="20">
-        <v>1</v>
-      </c>
-      <c r="E141" s="20"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="21">
-        <v>43</v>
-      </c>
-      <c r="E142" s="21"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="20">
-        <v>36</v>
-      </c>
-      <c r="E143" s="20"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="20">
-        <v>7</v>
-      </c>
-      <c r="E144" s="20"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="22">
-        <v>18738</v>
-      </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="10">
-        <v>10202</v>
-      </c>
-      <c r="G145" s="11"/>
-      <c r="H145" s="10">
-        <v>8536</v>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="22">
+        <v>14679</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="10">
+        <v>8975</v>
+      </c>
+      <c r="G137" s="11"/>
+      <c r="H137" s="10">
+        <v>5704</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="285">
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:E142"/>
+  <mergeCells count="269">
     <mergeCell ref="A133:C133"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="A134:C134"/>

--- a/data/screws/screws_unsh.xlsx
+++ b/data/screws/screws_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\screws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\screws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F91526A-FEB4-4EBD-BE1D-D2360D1F81C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E57E48-7743-4A5E-9776-917C149938E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,199 +56,211 @@
     <t>Винт</t>
   </si>
   <si>
+    <t>40005А Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
+  </si>
+  <si>
     <t>39806А Винт LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
+    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
+  </si>
+  <si>
+    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+  </si>
+  <si>
     <t>39502А Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1</t>
   </si>
   <si>
-    <t>39807А Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
-  </si>
-  <si>
-    <t>40125 Винт LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
-  </si>
-  <si>
-    <t>40005А Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
-  </si>
-  <si>
     <t>40308А Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
   </si>
   <si>
+    <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
+  </si>
+  <si>
     <t>39912А Винт LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
   </si>
   <si>
     <t>39911А Винт LM (копия оригинала) MegaGen AnyOne (арт. AS20) V.1</t>
   </si>
   <si>
+    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+  </si>
+  <si>
+    <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
+  </si>
+  <si>
     <t>40311А Винт LM (копия оригинала) Mis Multi-Unit (арт. MU-S0220) V.1</t>
   </si>
   <si>
+    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
+  </si>
+  <si>
+    <t>40009А Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
+  </si>
+  <si>
     <t>39109А Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
   </si>
   <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
+  </si>
+  <si>
+    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
     <t>40003А Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
   </si>
   <si>
-    <t>39502С Винт LM (копия оригинала) Zimmer 3.5 / 4.5 / 5.7 (арт. R60) V.1</t>
+    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
+  </si>
+  <si>
+    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
+  </si>
+  <si>
+    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
+    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
+  </si>
+  <si>
+    <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
+  </si>
+  <si>
+    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
+    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
+  </si>
+  <si>
+    <t>39123 Винт LM (копия оригинала) Neodent Grand Morse (арт. 116.283 Short) V.1</t>
+  </si>
+  <si>
+    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
+  </si>
+  <si>
+    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
+    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
+  </si>
+  <si>
+    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
+    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
+  </si>
+  <si>
+    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
+  </si>
+  <si>
+    <t>41033 Винт LM ZIRKONZAHN Osstem Implant Mini (3.5) V.1</t>
+  </si>
+  <si>
+    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
+  </si>
+  <si>
+    <t>39910Аупб Винт LM (копия оригинала) ICX Medentis (арт. C-007-000001-01) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
   </si>
   <si>
     <t>40316АOопт Винт LM GEO Osstem Implant Multi-Unit (арт. MUTOC) V.1</t>
   </si>
   <si>
-    <t>39915А Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
-    <t>41250А Винт LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
-    <t>40006А Винт LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
-  </si>
-  <si>
-    <t>41034 Винт LM ZIRKONZAHN Osstem Implant Regular (4.0/4.5/5.0) V.1</t>
-  </si>
-  <si>
-    <t>40116А Винт LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>40105А Винт LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
-  </si>
-  <si>
-    <t>41259А Винт LM (копия оригинала) Paltop Multi-Unit (арт. 80-70005) V.1</t>
-  </si>
-  <si>
-    <t>40003Аупб Винт LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40308Ауп Винт LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2 / УПАК</t>
-  </si>
-  <si>
-    <t>39906В Винт LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
-  </si>
-  <si>
-    <t>40140А Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
-    <t>40009Аупб Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39907А Винт LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
-  </si>
-  <si>
-    <t>39807Аупб Винт LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39915Аупб Винт LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1 / УПАК</t>
+    <t>40110А Винт LM (копия оригинала) Liko-M (арт. INN-6050) V.1</t>
+  </si>
+  <si>
+    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
+  </si>
+  <si>
+    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
+  </si>
+  <si>
+    <t>40109А Винт LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
+  </si>
+  <si>
+    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
+  </si>
+  <si>
+    <t>40114А Винт LM (копия оригинала) Roott (арт. S8) V.1</t>
+  </si>
+  <si>
+    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
+  </si>
+  <si>
+    <t>40316А Винт LM GEO Osstem Implant Multi-Unit, LENMIRIOT Multi-Unit (отв. Osstem) (арт. MUTOC) V.1</t>
+  </si>
+  <si>
+    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
+  </si>
+  <si>
+    <t>я НЕ ИСП !!!40010Ауп Винт LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1  / В ПРОБИРКЕ</t>
+  </si>
+  <si>
+    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
   </si>
   <si>
     <t>39913А Винт LM (копия оригинала) Conmet NP (2.2) (арт. 213.12) V.1</t>
   </si>
   <si>
-    <t>39918Аупб Винт LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39919Аупб Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39908А Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
-  </si>
-  <si>
-    <t>40300А Винт LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
-  </si>
-  <si>
-    <t>39113А Винт LM NT-Traiding Straumann SynOcta NN (3.5) (арт. N 60) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39502Ауп Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1  / В ПР</t>
-  </si>
-  <si>
-    <t>41029 Винт LM ZIRKONZAHN Impro, Implantium V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!39909Вуп Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1  / В ПРОБИРКЕ</t>
-  </si>
-  <si>
-    <t>39502Аупб Винт LM (копия оригинала) Mis SP (3.75/4.2) / WP (5.0/6.0), Mis C1 (Conical) SP (3.75/4.2) / WP (5.0) (арт. MD-S0220) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39917Аупб Винт LM (копия оригинала) Adin NP (3.0) (арт. NP-0001) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39601А Винт LM (копия оригинала) Niko 4.5 (арт. 5.300) V.1</t>
-  </si>
-  <si>
-    <t>39909В Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
-  </si>
-  <si>
-    <t>40007Аупб Винт LM (копия оригинала) Osstem Implant Mini (3.5) (арт. GSABSM) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39912А Винт LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
-  </si>
-  <si>
-    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>40008Аупб Винт LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>41039 Винт LM ZIRKONZAHN Zimmer 3.5 / 4.5 V.1</t>
-  </si>
-  <si>
-    <t>39109Аупб Винт LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5 / УПАК</t>
-  </si>
-  <si>
-    <t>39809А Винт LM (копия оригинала) Radix (арт. 180) V.1</t>
-  </si>
-  <si>
-    <t>40111Аупб Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>40111А Винт LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
-  </si>
-  <si>
-    <t>40312А Винт LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
-  </si>
-  <si>
     <t>39802Аупб Винт LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1 / УПАК</t>
   </si>
   <si>
+    <t>39600А Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
+  </si>
+  <si>
     <t>40140Ауп Винт LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1 / УПАК</t>
   </si>
   <si>
-    <t>41266А Винт LM (копия оригинала) Roott (арт. для ТО  арт. PCO2) V.1</t>
-  </si>
-  <si>
-    <t>41265А Винт LM (копия оригинала) Roott (арт. для ТО арт. PCO1) V.1</t>
-  </si>
-  <si>
-    <t>41238 Винт LM (собств. разр.) Roott V.1</t>
-  </si>
-  <si>
     <t>39600Аупб Винт LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1 / УПАК</t>
   </si>
   <si>
     <t>39901Аупб Винт LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1 / УПАК</t>
   </si>
   <si>
-    <t>41238А Винт LM (собств. разр.) Roott V.2</t>
-  </si>
-  <si>
-    <t>40005Аупб Винт LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1 / УПАК</t>
+    <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
+  </si>
+  <si>
+    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
+  </si>
+  <si>
+    <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
   </si>
   <si>
     <t>39908Аупб Винт LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39114Аупб Винт LM (собств. разр.) Straumann SynOcta 6.5 bridge V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>39115Аупб Винт Straumann SynOcta 4,8 bridge LM (1 винт в упаковке, блистер)</t>
-  </si>
-  <si>
-    <t>39905Bупб Винт LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1 / УПАК</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!40009Ауп Винт LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1  / В ПР</t>
+    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
   </si>
   <si>
     <t>40108Аупб Винт LM (копия оригинала) DIO UF II NP (3.0) (арт. UNSAS 1407H) V.1 / УПАК</t>
@@ -257,21 +269,9 @@
     <t>39803Аупб Винт LM (копия оригинала) Xive 3.0 (арт. 46-4304) V.1 / УПАК</t>
   </si>
   <si>
-    <t>40127А Винт LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
-  </si>
-  <si>
-    <t>39909Вупб Винт LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1 / УПАК</t>
-  </si>
-  <si>
     <t>40101Аупб Винт LM (копия оригинала) DIO SM RP (4.5) (арт. SSC 2008) V.1 / УПАК</t>
   </si>
   <si>
-    <t>39919А Винт LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
-  </si>
-  <si>
-    <t>41244 Винт LM (копия оригинала) MegaGen MiNi (арт. MIAS14) V.1</t>
-  </si>
-  <si>
     <t>Винт 3D аналога</t>
   </si>
   <si>
@@ -281,12 +281,12 @@
     <t>Винт лабораторный</t>
   </si>
   <si>
+    <t>40005АЛ Винт лаб. LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
+  </si>
+  <si>
     <t>40008АЛ Винт лаб. LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) (арт. GSABSST) V.1</t>
   </si>
   <si>
-    <t>40005АЛ Винт лаб. LM (копия оригинала) Implantium, Impro (арт. ASC2045) V.1</t>
-  </si>
-  <si>
     <t>39806АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level NC (3.3) (арт. 025-2900) V.1</t>
   </si>
   <si>
@@ -302,109 +302,127 @@
     <t>39109АЛ Винт лаб. LM (собств. разр.) Straumann SynOcta RN (4.8) / WN (6.5) V.5</t>
   </si>
   <si>
+    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
+  </si>
+  <si>
+    <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
+  </si>
+  <si>
+    <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
+  </si>
+  <si>
+    <t>40316АЛOопт Винт лаб. LM GEO Osstem Implant Multi-Unit (арт. MUTOC) V.1</t>
+  </si>
+  <si>
+    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
+  </si>
+  <si>
+    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
+  </si>
+  <si>
     <t>40003АЛ Винт лаб. LM (копия оригинала) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) (арт. 37891) V.1</t>
   </si>
   <si>
-    <t>41250АЛ Винт лаб. LM (копия оригинала) Straumann SynOcta RN (4.8) / WN (6.5) (арт. 048.711) V.1</t>
-  </si>
-  <si>
-    <t>39909ВЛ Винт лаб. LM (копия оригинала) Xive 3.4 / 3.8 / 4.5 / 5.5 (арт. 46-4305) V.1</t>
-  </si>
-  <si>
-    <t>40006АЛ Винт лаб. LM (копия оригинала) MegaGen AnyRidge (арт. AANMSF) V.1</t>
-  </si>
-  <si>
     <t>40105АЛ Винт лаб. LM (копия оригинала) Anthogyr Axiom (арт. ОРТР410) V.1</t>
   </si>
   <si>
+    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+  </si>
+  <si>
+    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
+  </si>
+  <si>
     <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNITS) V.1</t>
   </si>
   <si>
-    <t>39915АЛ Винт лаб. LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) (арт. RS3402) V.1</t>
-  </si>
-  <si>
     <t>39906ВЛ Винт лаб. LM (копия оригинала) Biomet 3i Certain 3.4 / 4.1 / 5.0 / 6.0 (арт. IUNIHT) V.2</t>
   </si>
   <si>
+    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
+  </si>
+  <si>
     <t>39919АЛ Винт лаб. LM (копия оригинала) Adin WP (4.3/5.0) (арт. WP-0001) V.1</t>
   </si>
   <si>
-    <t>40009АЛ Винт лаб. LM (копия оригинала) Nobel Active RP (4.5) / WP (5.5), Nobel Conical Connection RP (4.3) / WP (5.0) (арт. 37892) V.1</t>
+    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
   </si>
   <si>
     <t>39918АЛ Винт лаб. LM (копия оригинала) Adin RP (3.5) (арт. RP-0001) V.1</t>
   </si>
   <si>
-    <t>39908АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 4.3 / 5.0 / 6.0 (арт. 29475) V.1</t>
+    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
   </si>
   <si>
     <t>39802АЛ Винт лаб. LM (копия оригинала) Mis NP (3.3), Mis C1 (Conical) NP (3.3) (арт. MN-S0160) V.1</t>
   </si>
   <si>
+    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
+  </si>
+  <si>
     <t>39912АЛ Винт лаб. LM (копия оригинала) Bego Semados 3.25/3.75 / 4.1 / 4.5 / 5.5 (арт. 57028) V.1</t>
   </si>
   <si>
-    <t>40116АЛ Винт лаб. LM (копия оригинала) Sky Bredent (арт. SKY-PS24) V.1</t>
-  </si>
-  <si>
-    <t>39916АЛ Винт лаб. LM (копия оригинала) Astra Tech 3.5/4.0 (арт. 24449) V.1</t>
-  </si>
-  <si>
-    <t>40140АЛ Винт лаб. LM (копия оригинала) Osstem Implant Multi-Unit (арт. MTS200) V.1</t>
-  </si>
-  <si>
     <t>39901АЛ Винт лаб. LM (копия оригинала) Alpha Bio Internal (арт. 5122) V.1</t>
   </si>
   <si>
+    <t>41033Л Винт лаб. LM ZIRKONZAHN Osstem Implant Mini (3.5) V.1</t>
+  </si>
+  <si>
+    <t>39910АЛ Винт лаб. LM (копия оригинала) ICX Medentis (арт. C-007-000001-01) V.1</t>
+  </si>
+  <si>
+    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
+  </si>
+  <si>
+    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
+  </si>
+  <si>
+    <t>40305АЛ Винт лаб. LM (копия оригинала) Astra Uni 20 градусов / 45 градусов (арт. 22435) V.1</t>
+  </si>
+  <si>
+    <t>40300АЛ Винт лаб. LM (копия оригинала) Ankylos Multi-Unit (арт. 3105 6022) V.1</t>
+  </si>
+  <si>
     <t>39912АЛ Винт лаб. LM (собств. разр.) Bego Semados 3.25/3.75 V.2</t>
   </si>
   <si>
+    <t>40109АЛ Винт лаб. LM (копия оригинала) DIO UF II RP (3.8/4.0/4.5/5.0/5.5) (арт. SSC 2008H) V.1</t>
+  </si>
+  <si>
+    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
+  </si>
+  <si>
+    <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
+  </si>
+  <si>
+    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
+  </si>
+  <si>
+    <t>39921АЛ Винт лаб. LM (копия оригинала) Dentis Regular (арт. DSAS) V.2</t>
+  </si>
+  <si>
+    <t>39905BЛ Винт лаб. LM (копия оригинала) Astra Tech 4.5/5.0 (арт. 24209) V.1</t>
+  </si>
+  <si>
+    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.1</t>
+  </si>
+  <si>
     <t>40111АЛ Винт лаб. LM (копия оригинала) Nobel Active 3.0 (арт. 36776) V.1</t>
   </si>
   <si>
-    <t>40125Л Винт лаб. LM (копия оригинала) Alpha Bio Conical Narrow (арт. 7345) V.1</t>
-  </si>
-  <si>
-    <t>40312АЛ Винт лаб. LM (копия оригинала) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Nobel) (арт. 29287) V.1</t>
-  </si>
-  <si>
-    <t>41238АЛ Винт лаб. LM (собств. разр.) Roott V.2</t>
-  </si>
-  <si>
-    <t>41238Л Винт лаб. LM (собств. разр.) Roott V.1</t>
-  </si>
-  <si>
-    <t>41265АЛ Винт лаб. LM (копия оригинала) Roott (арт. для ТО арт. PCO1) V.1</t>
-  </si>
-  <si>
-    <t>40114АЛ Винт лаб. LM (копия оригинала) Roott (арт. S8) V.1</t>
-  </si>
-  <si>
-    <t>я НЕ ИСП !!!41238АЛ Винт лаб. LM (собств. разр.) Roott V.2</t>
-  </si>
-  <si>
-    <t>41266АЛ Винт лаб. LM (копия оригинала) Roott (арт. для ТО  арт. PCO2) V.1</t>
-  </si>
-  <si>
-    <t>39600АЛ Винт лаб. LM (копия оригинала) Niko 3.5 (арт. 5.301) V.2</t>
-  </si>
-  <si>
-    <t>41244Л Винт лаб. LM (копия оригинала) MegaGen MiNi (арт. MIAS14) V.1</t>
-  </si>
-  <si>
-    <t>40127АЛ Винт лаб. LM (копия оригинала) BoneTrust HEX 3.0 / 3.4 / 4.0 / 5.0 (арт. 160-100001) V.1</t>
-  </si>
-  <si>
-    <t>40010АЛ Винт лаб. LM (копия оригинала) NeoBiotech 3.8 / 4.3 (арт. ISC 20) V.1</t>
+    <t>41053Л Винт лаб. LM (копия оригинала) Straumann Bone Level Multi-Unit NC (3.3) / NC/RC (3.3/4.1/4.8) (арт. 023.4763) V.1</t>
+  </si>
+  <si>
+    <t>39907АЛ Винт лаб. LM (копия оригинала) Nobel Replace Select 3.5 (арт. 36818) V.1</t>
   </si>
   <si>
     <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5, Impro Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.1</t>
   </si>
   <si>
-    <t>39807АЛ Винт лаб. LM (копия оригинала) Straumann Bone Level RC ( 4.1/4.8) (арт. 025-4900) V.1</t>
-  </si>
-  <si>
-    <t>40308АЛ Винт лаб. LM (копия оригинала) Implantium Multi-Unit 4.5 / 5.5 (арт. SRS18T) V.2</t>
+    <t>Винт трансфера для закрытой ложки</t>
+  </si>
+  <si>
+    <t>41315 Винт трансфера Adin RS (3.5/3.75/4.2/5.0/6.0) закрытая ложка L=20.5 V.1</t>
   </si>
   <si>
     <t>Винт трансфера для открытой ложки</t>
@@ -416,34 +434,55 @@
     <t>41218 Винт трансфера Implantium открытая ложка L=11 V.1</t>
   </si>
   <si>
+    <t>41349 Винт трансфера LENMIRIOT Multi-Unit (отв. Nobel) открытая ложка L=10 V.1</t>
+  </si>
+  <si>
     <t>41214 Винт трансфера Osstem Implant Regular (4.0/4.5/5.0) открытая ложка L=21.5 V.1</t>
   </si>
   <si>
     <t>41299 Винт трансфера Implantium Multi-Unit 4.5 открытая ложка L=15 V.1</t>
   </si>
   <si>
+    <t>41442 Винт трансфера LENMIRIOT Multi-Unit (отв. Ankylos) открытая ложка L=10 V.1</t>
+  </si>
+  <si>
+    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.1</t>
+  </si>
+  <si>
+    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.2</t>
+  </si>
+  <si>
+    <t>41231 Винт трансфера Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) открытая ложка L=27.7 V.2</t>
+  </si>
+  <si>
     <t>41210 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=19 V.1</t>
   </si>
   <si>
+    <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
+  </si>
+  <si>
     <t>41221 Винт трансфера Ankylos X открытая ложка L=25 V.1</t>
   </si>
   <si>
     <t>41252 Винт трансфера Astra Tech 3.5/4.0 открытая ложка L=21 V.1</t>
   </si>
   <si>
-    <t>41201 Винт трансфера Ankylos X открытая ложка L=20 V.1</t>
-  </si>
-  <si>
-    <t>41203 Винт трансфера Xive 3.4 / 3.8 / 4.5 открытая ложка L=22 V.1</t>
-  </si>
-  <si>
-    <t>41230 Винт трансфера Nobel Conical Connection NP (3.5), Nobel Active NP (3.5) открытая ложка L=27.7 V.1</t>
+    <t>41209 Винт трансфера Nobel Replace Select 4.3 открытая ложка L=20.6 V.1</t>
+  </si>
+  <si>
+    <t>41233 Винт трансфера Mis SP (3.75/4.2), Mis C1 (Conical) SP (3.75/4.2) открытая ложка L=22.5 V.1</t>
   </si>
   <si>
     <t>Винт углового абатмента MU</t>
   </si>
   <si>
-    <t>41344 Винт угл. абатмента MU LM (собств. разр.) Implantium V.1 /</t>
+    <t>41344 Винт угл. абатмента MU LM (собств. разр.) Implantium, Astra Tech 4.5/5.0 V.1 /</t>
+  </si>
+  <si>
+    <t>41350 Винт угл. абатмента MU LM (собств. разр.) Nobel Active RP (4.5) V.1 /</t>
+  </si>
+  <si>
+    <t>41342 Винт угл. абатмента MU LM (собств. разр.) Osstem Implant Mini (3.5) V.1 /</t>
   </si>
 </sst>
 </file>
@@ -542,10 +581,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,11 +971,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -947,7 +984,8 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1007,15 +1045,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17">
-        <v>11576</v>
+        <v>13127</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="4">
-        <v>7801</v>
+        <v>8528</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>3775</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1025,33 +1063,33 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19">
-        <v>1073</v>
+        <v>3670</v>
       </c>
       <c r="E7" s="19"/>
-      <c r="F7" s="7">
-        <v>343</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="6">
+        <v>2745</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19">
-        <v>2159</v>
+        <v>1001</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="6">
-        <v>1605</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7">
-        <v>554</v>
+      <c r="F8" s="8">
+        <v>343</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8">
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1061,15 +1099,15 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="20">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>46</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7">
-        <v>400</v>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1079,33 +1117,33 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="20">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>150</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19">
-        <v>2991</v>
+        <v>1856</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="6">
-        <v>2745</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7">
-        <v>246</v>
+        <v>1605</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8">
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1115,13 +1153,13 @@
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="20">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7">
-        <v>117</v>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8">
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1131,33 +1169,33 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="20">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="F13" s="7">
-        <v>88</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="8">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="20">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="7">
-        <v>57</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7">
-        <v>95</v>
+      <c r="F14" s="8">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1167,15 +1205,15 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="20">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="7">
-        <v>50</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7">
-        <v>70</v>
+      <c r="F15" s="8">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1185,15 +1223,15 @@
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="20">
-        <v>81</v>
+        <v>663</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="7">
-        <v>16</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7">
-        <v>65</v>
+      <c r="F16" s="8">
+        <v>580</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1203,15 +1241,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="7">
-        <v>125</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7">
-        <v>62</v>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1221,15 +1257,15 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="20">
-        <v>641</v>
+        <v>120</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="7">
-        <v>580</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7">
-        <v>61</v>
+      <c r="F18" s="8">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1239,45 +1275,51 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="20">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="8">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="20">
-        <v>56</v>
+        <v>778</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="8">
+        <v>711</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7">
-        <v>51</v>
+      <c r="F21" s="8">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1287,15 +1329,13 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="20">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="7">
-        <v>130</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7">
-        <v>50</v>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1305,29 +1345,31 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="20">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7">
-        <v>41</v>
+      <c r="F24" s="8">
+        <v>125</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1337,15 +1379,13 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="20">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="7">
-        <v>222</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7">
-        <v>39</v>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1355,47 +1395,51 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="8">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="20">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="7">
-        <v>25</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="8">
+        <v>130</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="20">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7">
-        <v>30</v>
+      <c r="F28" s="8">
+        <v>222</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1405,13 +1449,13 @@
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7">
-        <v>30</v>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1421,15 +1465,15 @@
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="20">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="7">
-        <v>8</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7">
-        <v>30</v>
+      <c r="F30" s="8">
+        <v>270</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1439,14 +1483,12 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="7">
-        <v>25</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1457,14 +1499,12 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="7">
-        <v>45</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1475,69 +1515,65 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="7">
-        <v>80</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7">
+      <c r="F33" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="7"/>
+      <c r="H33" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="7">
-        <v>25</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="20">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="7">
-        <v>50</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7">
+      <c r="F35" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="7"/>
+      <c r="H35" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="20">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="7">
-        <v>25</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7">
-        <v>25</v>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1550,30 +1586,30 @@
         <v>50</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>25</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7">
+      <c r="G37" s="7"/>
+      <c r="H37" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="20">
-        <v>292</v>
+        <v>50</v>
       </c>
       <c r="E38" s="20"/>
-      <c r="F38" s="7">
-        <v>270</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7">
-        <v>22</v>
+      <c r="F38" s="8">
+        <v>25</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1583,29 +1619,33 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="20">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E39" s="20"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="8">
+        <v>25</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="20">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7">
-        <v>20</v>
+      <c r="F40" s="8">
+        <v>80</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1618,9 +1658,9 @@
         <v>20</v>
       </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1631,18 +1671,16 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="7">
-        <v>40</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>46</v>
       </c>
@@ -1652,28 +1690,28 @@
         <v>20</v>
       </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="7">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="20">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="7">
-        <v>10</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7">
-        <v>15</v>
+      <c r="F44" s="8">
+        <v>40</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1683,32 +1721,30 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="20">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="7">
-        <v>25</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="20">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E46" s="20"/>
-      <c r="F46" s="7">
-        <v>30</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7">
+      <c r="F46" s="8">
+        <v>10</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8">
         <v>15</v>
       </c>
     </row>
@@ -1719,33 +1755,31 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="20">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="E47" s="20"/>
-      <c r="F47" s="7">
-        <v>210</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="8">
+        <v>30</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="20">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E48" s="20"/>
-      <c r="F48" s="7">
-        <v>65</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7">
-        <v>10</v>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1755,15 +1789,15 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="20">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="E49" s="20"/>
-      <c r="F49" s="7">
-        <v>400</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7">
-        <v>10</v>
+      <c r="F49" s="8">
+        <v>25</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1773,48 +1807,46 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50" s="20"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="20">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="7">
-        <v>75</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="7">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="20">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="7">
-        <v>50</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="7">
+      <c r="F52" s="8">
+        <v>75</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8">
         <v>10</v>
       </c>
     </row>
@@ -1825,29 +1857,33 @@
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="20">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E53" s="20"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="8">
+        <v>15</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="20">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="7">
-        <v>7</v>
+      <c r="F54" s="8">
+        <v>65</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1857,99 +1893,97 @@
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="20">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="8">
+        <v>50</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56" s="20"/>
-      <c r="F56" s="7">
-        <v>15</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="20">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="7">
-        <v>50</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="8">
+        <v>400</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="7">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="8">
         <v>10</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E59" s="20"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E60" s="20"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="7">
-        <v>3</v>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1959,29 +1993,29 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E61" s="20"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="7">
-        <v>3</v>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1991,13 +2025,13 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="7">
-        <v>3</v>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2007,15 +2041,13 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E64" s="20"/>
-      <c r="F64" s="7">
-        <v>1</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="7">
-        <v>3</v>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2025,65 +2057,69 @@
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="20">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E65" s="20"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="8">
+        <v>50</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="20">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E66" s="20"/>
-      <c r="F66" s="7">
-        <v>65</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="8">
+        <v>10</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="20">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="7">
-        <v>20</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="8">
+        <v>251</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="20">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E68" s="20"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7">
-        <v>2</v>
+      <c r="F68" s="8">
+        <v>40</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2093,13 +2129,13 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" s="20"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="7">
-        <v>2</v>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2109,16 +2145,18 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" s="20"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="8">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>74</v>
       </c>
@@ -2128,26 +2166,26 @@
         <v>2</v>
       </c>
       <c r="E71" s="20"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="7">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" s="20"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="7">
-        <v>1</v>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2157,13 +2195,13 @@
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="20"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="7">
-        <v>1</v>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2173,13 +2211,15 @@
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="20">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E74" s="20"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7">
-        <v>1</v>
+      <c r="F74" s="8">
+        <v>20</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2192,13 +2232,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="20"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="7">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>79</v>
       </c>
@@ -2208,9 +2248,9 @@
         <v>1</v>
       </c>
       <c r="E76" s="20"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="7">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2224,9 +2264,9 @@
         <v>1</v>
       </c>
       <c r="E77" s="20"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2240,9 +2280,9 @@
         <v>1</v>
       </c>
       <c r="E78" s="20"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="7">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2253,13 +2293,13 @@
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2269,13 +2309,13 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80" s="20"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7">
-        <v>4</v>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2285,51 +2325,51 @@
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="17">
-        <v>2483</v>
+        <v>3069</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="9">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="20">
-        <v>340</v>
+        <v>541</v>
       </c>
       <c r="E82" s="20"/>
-      <c r="F82" s="7">
-        <v>65</v>
-      </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F82" s="8">
+        <v>72</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="20">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="E83" s="20"/>
-      <c r="F83" s="7">
-        <v>72</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="7">
-        <v>244</v>
+      <c r="F83" s="8">
+        <v>65</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8">
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2339,15 +2379,15 @@
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="20">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E84" s="20"/>
-      <c r="F84" s="7">
+      <c r="F84" s="8">
         <v>51</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="7">
-        <v>204</v>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8">
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2357,15 +2397,15 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="20">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="E85" s="20"/>
-      <c r="F85" s="7">
+      <c r="F85" s="8">
         <v>55</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="7">
-        <v>147</v>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8">
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2375,15 +2415,15 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="20">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E86" s="20"/>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <v>6</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="7">
-        <v>136</v>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8">
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2393,13 +2433,13 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="20">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="E87" s="20"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="7">
-        <v>119</v>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8">
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2409,15 +2449,15 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="20">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E88" s="20"/>
-      <c r="F88" s="7">
+      <c r="F88" s="8">
         <v>6</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="7">
-        <v>74</v>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2427,15 +2467,13 @@
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="20">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E89" s="20"/>
-      <c r="F89" s="7">
-        <v>27</v>
-      </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="7">
-        <v>58</v>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="8">
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2445,13 +2483,15 @@
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="20">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E90" s="20"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="7">
-        <v>50</v>
+      <c r="F90" s="8">
+        <v>48</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="8">
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2461,15 +2501,15 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="20">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E91" s="20"/>
-      <c r="F91" s="7">
-        <v>41</v>
-      </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="7">
-        <v>49</v>
+      <c r="F91" s="8">
+        <v>25</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8">
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2479,15 +2519,13 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="20">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="7">
-        <v>25</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7">
-        <v>37</v>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2497,31 +2535,31 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="20">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E93" s="20"/>
-      <c r="F93" s="7">
-        <v>62</v>
-      </c>
-      <c r="G93" s="8"/>
-      <c r="H93" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="8">
+        <v>41</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="20">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E94" s="20"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="7">
-        <v>31</v>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8">
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2531,49 +2569,51 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="20">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E95" s="20"/>
-      <c r="F95" s="7">
-        <v>25</v>
-      </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="8">
+        <v>27</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="20">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E96" s="20"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="8">
+        <v>62</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="20">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E97" s="20"/>
-      <c r="F97" s="7">
+      <c r="F97" s="8">
         <v>25</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="7">
-        <v>26</v>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8">
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2583,33 +2623,31 @@
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="20">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E98" s="20"/>
-      <c r="F98" s="7">
-        <v>48</v>
-      </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="8">
+        <v>25</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
       <c r="D99" s="20">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E99" s="20"/>
-      <c r="F99" s="7">
-        <v>25</v>
-      </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="7">
-        <v>25</v>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="8">
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2619,15 +2657,13 @@
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="20">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E100" s="20"/>
-      <c r="F100" s="7">
-        <v>25</v>
-      </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="7">
-        <v>24</v>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2637,31 +2673,31 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="20">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E101" s="20"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="20">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E102" s="20"/>
-      <c r="F102" s="7">
-        <v>20</v>
-      </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="7">
-        <v>21</v>
+      <c r="F102" s="8">
+        <v>25</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2671,13 +2707,15 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="20">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E103" s="20"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="7">
-        <v>20</v>
+      <c r="F103" s="8">
+        <v>10</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2687,47 +2725,49 @@
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="20">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E104" s="20"/>
-      <c r="F104" s="7">
-        <v>10</v>
-      </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F104" s="8">
+        <v>25</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="20">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E105" s="20"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F105" s="8">
+        <v>50</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
       <c r="D106" s="20">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E106" s="20"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="7">
-        <v>13</v>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2737,31 +2777,31 @@
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
       <c r="D107" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E107" s="20"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
       <c r="D108" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E108" s="20"/>
-      <c r="F108" s="7">
-        <v>1</v>
-      </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="7">
-        <v>9</v>
+      <c r="F108" s="8">
+        <v>20</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2771,31 +2811,29 @@
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
       <c r="D109" s="20">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E109" s="20"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E110" s="20"/>
-      <c r="F110" s="7">
-        <v>2</v>
-      </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="7">
-        <v>3</v>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2805,29 +2843,33 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="20">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E111" s="20"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F111" s="8">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E112" s="20"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="7">
-        <v>3</v>
+      <c r="F112" s="8">
+        <v>2</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2837,29 +2879,29 @@
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E113" s="20"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E114" s="20"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="7">
-        <v>3</v>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2869,13 +2911,13 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E115" s="20"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="7">
-        <v>3</v>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2885,29 +2927,29 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E116" s="20"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E117" s="20"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="7">
-        <v>2</v>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2917,15 +2959,13 @@
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="20">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E118" s="20"/>
-      <c r="F118" s="7">
-        <v>50</v>
-      </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="7">
-        <v>2</v>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2935,13 +2975,13 @@
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E119" s="20"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="7">
-        <v>1</v>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2951,97 +2991,97 @@
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E120" s="20"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E121" s="20"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="20">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E122" s="20"/>
-      <c r="F122" s="7">
-        <v>50</v>
-      </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="20">
+        <v>35</v>
+      </c>
+      <c r="E123" s="20"/>
+      <c r="F123" s="8">
+        <v>30</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="20">
+        <v>5</v>
+      </c>
+      <c r="E124" s="20"/>
+      <c r="F124" s="8">
         <v>1</v>
       </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="21">
-        <v>613</v>
-      </c>
-      <c r="E124" s="21"/>
-      <c r="F124" s="9">
-        <v>483</v>
-      </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="G124" s="7"/>
+      <c r="H124" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>128</v>
       </c>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="20">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E125" s="20"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="7">
-        <v>52</v>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3051,49 +3091,47 @@
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="20">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E126" s="20"/>
-      <c r="F126" s="7">
-        <v>32</v>
-      </c>
-      <c r="G126" s="8"/>
-      <c r="H126" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F126" s="8">
+        <v>23</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="20">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="E127" s="20"/>
-      <c r="F127" s="7">
-        <v>166</v>
-      </c>
-      <c r="G127" s="8"/>
-      <c r="H127" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="18" t="s">
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="20">
-        <v>10</v>
-      </c>
-      <c r="E128" s="20"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="7">
-        <v>10</v>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="21">
+        <v>1</v>
+      </c>
+      <c r="E128" s="21"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3103,31 +3141,31 @@
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="20">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="E129" s="20"/>
-      <c r="F129" s="7">
-        <v>135</v>
-      </c>
-      <c r="G129" s="8"/>
-      <c r="H129" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="18" t="s">
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="20">
-        <v>3</v>
-      </c>
-      <c r="E130" s="20"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="7">
-        <v>3</v>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="21">
+        <v>698</v>
+      </c>
+      <c r="E130" s="21"/>
+      <c r="F130" s="9">
+        <v>483</v>
+      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="9">
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3137,15 +3175,13 @@
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="20">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="E131" s="20"/>
-      <c r="F131" s="7">
-        <v>150</v>
-      </c>
-      <c r="G131" s="8"/>
-      <c r="H131" s="7">
-        <v>3</v>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8">
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3155,13 +3191,15 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="20">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E132" s="20"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="7">
-        <v>3</v>
+      <c r="F132" s="8">
+        <v>32</v>
+      </c>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8">
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3171,45 +3209,47 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="20">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E133" s="20"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="20">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="E134" s="20"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="16" t="s">
+      <c r="F134" s="8">
+        <v>166</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="21">
-        <v>3</v>
-      </c>
-      <c r="E135" s="21"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="9">
-        <v>3</v>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="20">
+        <v>10</v>
+      </c>
+      <c r="E135" s="20"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3219,35 +3259,273 @@
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="20">
+        <v>10</v>
+      </c>
+      <c r="E136" s="20"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="20">
+        <v>7</v>
+      </c>
+      <c r="E137" s="20"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="20">
+        <v>6</v>
+      </c>
+      <c r="E138" s="20"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="20">
+        <v>5</v>
+      </c>
+      <c r="E139" s="20"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="20">
+        <v>140</v>
+      </c>
+      <c r="E140" s="20"/>
+      <c r="F140" s="8">
+        <v>135</v>
+      </c>
+      <c r="G140" s="7"/>
+      <c r="H140" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="20">
+        <v>4</v>
+      </c>
+      <c r="E141" s="20"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="20">
         <v>3</v>
       </c>
-      <c r="E136" s="20"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="7">
+      <c r="E142" s="20"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="15" t="s">
+    <row r="143" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="20">
+        <v>153</v>
+      </c>
+      <c r="E143" s="20"/>
+      <c r="F143" s="8">
+        <v>150</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8">
         <v>3</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="22">
-        <v>14679</v>
-      </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="10">
-        <v>8975</v>
-      </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="10">
-        <v>5704</v>
+    </row>
+    <row r="144" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="20">
+        <v>3</v>
+      </c>
+      <c r="E144" s="20"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="20">
+        <v>3</v>
+      </c>
+      <c r="E145" s="20"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="21">
+        <v>8</v>
+      </c>
+      <c r="E146" s="21"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="20">
+        <v>6</v>
+      </c>
+      <c r="E147" s="20"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="20">
+        <v>1</v>
+      </c>
+      <c r="E148" s="20"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="20">
+        <v>1</v>
+      </c>
+      <c r="E149" s="20"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="22">
+        <v>16905</v>
+      </c>
+      <c r="E150" s="22"/>
+      <c r="F150" s="10">
+        <v>9706</v>
+      </c>
+      <c r="G150" s="11"/>
+      <c r="H150" s="10">
+        <v>7199</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="269">
+  <mergeCells count="295">
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:E142"/>
     <mergeCell ref="A133:C133"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="A134:C134"/>
